--- a/docs/LTA1_C/LTA1_C_24.07.24_output.xlsx
+++ b/docs/LTA1_C/LTA1_C_24.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,183 +505,207 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731792595.5447626</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731792595.5447626.png</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731792595.5447626.png</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>295.68</v>
       </c>
-      <c r="J3" t="n">
-        <v>295.68</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>296.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.8199999999999932</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731792599.291483</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731792599.291483.png</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731792599.291483.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>135.9</v>
       </c>
-      <c r="J4" t="n">
-        <v>135.9</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>136.76</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.8599999999999852</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731792603.5996377</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731792603.8708189</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731792603.5996377.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731792603.8708189.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>6953</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>6984</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>31</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -679,51 +713,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731792603.951617</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731792604.1197574</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731792603.951617.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731792604.1197574.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>7008.5</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>6980</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>28.5</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -731,51 +771,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731792605.645696</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731792607.1247451</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731792605.645696.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731792607.1247451.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>6950</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>6982</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>32</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -783,95 +829,107 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731792607.4641728</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731792607.4641728.png</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731792607.4641728.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>533.35</v>
       </c>
-      <c r="J8" t="n">
-        <v>533.35</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>537</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-3.649999999999977</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.6799999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731792611.5330856</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731792614.9764602</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731792611.5330856.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731792614.9764602.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>1104.6</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>1091.8</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>12.79999999999995</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>1.16</v>
       </c>
     </row>
@@ -879,139 +937,157 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731792616.412866</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731792616.412866.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731792616.412866.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>1085.6</v>
       </c>
-      <c r="J10" t="n">
-        <v>1085.6</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1084.6</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731792618.3192906</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731792618.3192906.png</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731792618.3192906.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>129.44</v>
       </c>
-      <c r="J11" t="n">
-        <v>129.44</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>131.44</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-1.55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731792620.7517173</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731792623.152956</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731792620.7517173.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731792623.152956.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>168.04</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>169.22</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>1.180000000000007</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.7000000000000001</v>
       </c>
     </row>
@@ -1019,95 +1095,107 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731792623.2446141</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731792623.2446141.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731792623.2446141.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>170</v>
       </c>
-      <c r="J13" t="n">
-        <v>170</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>171.74</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-1.740000000000009</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-1.02</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731792625.8596563</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731792628.1909177</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731792625.8596563.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731792628.1909177.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>53.31</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>53.6</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.2899999999999991</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -1115,51 +1203,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731792628.3298163</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731792629.6577086</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731792628.3298163.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731792629.6577086.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>53.745</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>53.525</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.2199999999999989</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -1167,183 +1261,207 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731792630.6971855</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731792630.6971855.png</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731792630.6971855.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>1465.4</v>
       </c>
-      <c r="J16" t="n">
-        <v>1465.4</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1464.8</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.6000000000001364</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731792636.0897048</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731792636.0897048.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731792636.0897048.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>64.25</v>
       </c>
-      <c r="J17" t="n">
-        <v>64.25</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>63.95</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.2999999999999972</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731792647.5787776</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731792647.5787776.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731792647.5787776.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>145.38</v>
       </c>
-      <c r="J18" t="n">
-        <v>145.38</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>146.1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.7199999999999989</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731792648.2126231</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731792648.5793009</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731792648.2126231.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731792648.5793009.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>91.5</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>90.08</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>1.420000000000002</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>1.55</v>
       </c>
     </row>
@@ -1351,95 +1469,107 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731792650.293055</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>./test_images/ABIO1731792650.293055.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
+          <t>./test_images/ABIO1731792650.293055.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="J20" t="n">
-        <v>88.59999999999999</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>89.09999999999999</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.5599999999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731792652.6896818</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731792653.7171438</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731792652.6896818.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731792653.7171438.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>360.54</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>363.1</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>2.560000000000002</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.7100000000000001</v>
       </c>
     </row>
@@ -1447,220 +1577,250 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731792655.0796173</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731792655.0796173.png</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731792655.0796173.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>363.78</v>
       </c>
-      <c r="J22" t="n">
-        <v>363.78</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>370.24</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-6.460000000000036</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-1.78</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731792657.7951422</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731792657.7951422.png</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731792657.7951422.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>0.09934000000000001</v>
       </c>
-      <c r="J23" t="n">
-        <v>0.09934000000000001</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>0.10026</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-0.0009199999999999903</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.9299999999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731792662.4210627</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731792662.4210627.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731792662.4210627.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>3115.65</v>
       </c>
-      <c r="J24" t="n">
-        <v>3115.65</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>3132.95</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-17.29999999999973</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.5599999999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731792667.5224032</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1731792667.5224032.png</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1731792667.5224032.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>38.195</v>
       </c>
-      <c r="J25" t="n">
-        <v>38.195</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>37.995</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-0.2000000000000028</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.52</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731792671.6162517</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>./test_images/TATN1731792671.6162517.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
+          <t>./test_images/TATN1731792671.6162517.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>663.9</v>
       </c>
-      <c r="J26" t="n">
-        <v>663.9</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>665.2</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-1.300000000000068</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.2</v>
       </c>
     </row>
   </sheetData>
@@ -1743,19 +1903,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.420000000000002</v>
+        <v>1.920000000000002</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7100000000000009</v>
+        <v>0.9600000000000009</v>
       </c>
       <c r="E3" t="n">
-        <v>1.55</v>
+        <v>2.11</v>
       </c>
       <c r="F3" t="n">
-        <v>0.78</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="4">
@@ -1765,19 +1925,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.79999999999995</v>
+        <v>11.79999999999995</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>6.399999999999977</v>
+        <v>5.899999999999977</v>
       </c>
       <c r="E4" t="n">
-        <v>1.16</v>
+        <v>1.07</v>
       </c>
       <c r="F4" t="n">
-        <v>0.58</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="5">
@@ -1787,19 +1947,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.560000000000002</v>
+        <v>-3.900000000000034</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>1.280000000000001</v>
+        <v>-1.950000000000017</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7100000000000001</v>
+        <v>-1.07</v>
       </c>
       <c r="F5" t="n">
-        <v>0.36</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="6">
@@ -1831,19 +1991,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.180000000000007</v>
+        <v>-0.5600000000000023</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5900000000000034</v>
+        <v>-0.2800000000000011</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7000000000000001</v>
+        <v>-0.32</v>
       </c>
       <c r="F7" t="n">
-        <v>0.35</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="8">
@@ -1853,19 +2013,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-1.300000000000068</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>-1.300000000000068</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="9">
@@ -1875,19 +2035,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.7199999999999989</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.7199999999999989</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
@@ -1897,19 +2057,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>-0.8199999999999932</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>-0.8199999999999932</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>-0.28</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="11">
@@ -1919,19 +2079,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-0.2000000000000028</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-0.2000000000000028</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-0.52</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="12">
@@ -1941,19 +2101,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>-3.649999999999977</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>-3.649999999999977</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>-0.6799999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>-0.68</v>
       </c>
     </row>
     <row r="13">
@@ -1963,19 +2123,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-17.29999999999973</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-17.29999999999973</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-0.5599999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-0.5600000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -1985,19 +2145,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.2999999999999972</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.2999999999999972</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="15">
@@ -2007,19 +2167,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>-1.55</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>-1.55</v>
       </c>
     </row>
     <row r="16">
@@ -2029,19 +2189,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-0.8599999999999852</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-0.8599999999999852</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-0.63</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="17">
@@ -2051,19 +2211,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-0.0009199999999999903</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-0.0009199999999999903</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-0.9299999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-0.93</v>
       </c>
     </row>
     <row r="18">
@@ -2073,19 +2233,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.6000000000001364</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.6000000000001364</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="19">
